--- a/資料庫規劃.xlsx
+++ b/資料庫規劃.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +46,359 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum('M','F')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rooms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum('Double','Twin','Single')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_weekday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_holiday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demical(8,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddOnService_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(8,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(125)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_on_services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY() REFERENCES add_on_services(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_on_orders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>booking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY () REFERENCES order(order_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>create_datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CURRENT_TIMESTAMP</t>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUREENT_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_on_order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_atm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_out_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_credit_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)-a開頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)-c開頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre_charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAIWAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_in_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL-orders(order_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL-add_on_orders(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL-room_type(type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guests</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,23 +406,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MUL-guests(guest_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
+    <t>update_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -82,383 +446,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum('M','F')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rooms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum('Double','Twin','Single')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOREIGN KEY() REFERENCES room_type(type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>discribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_available</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate_weekday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate_holiday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demical(8,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddOnService_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(8,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(125)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_on_services</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOREIGN KEY() REFERENCES add_on_services(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(6,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guests</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guest_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastest_arrival</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accommodate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_on_orders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>room_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>booking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOREIGN KEY () REFERENCES order(order_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUREENT_TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_on_order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOREIGN KEY () REFERENCES add_on_orders(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(10,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(125)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum('M', 'F')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiwan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrival_datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_atm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expiration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_out_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adults</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_credit_card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)-a開頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)-c開頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre_charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paid</t>
+    <t>single_discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float(3,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastest_arrival_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum("NEW", "PAID", "CANCEL", "DELETE")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +563,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,17 +868,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
@@ -883,33 +890,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -917,39 +924,39 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -960,18 +967,18 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -980,10 +987,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>4</v>
@@ -991,522 +998,515 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="F11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21"/>
+        <v>104</v>
+      </c>
       <c r="D21"/>
-      <c r="E21" s="2"/>
-      <c r="G21"/>
-      <c r="H21"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="2"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C25"/>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="1" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>23</v>
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>29</v>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>47</v>
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>20</v>
+      <c r="D53" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1514,13 +1514,12 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/資料庫規劃.xlsx
+++ b/資料庫規劃.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FOREIGN KEY () REFERENCES order(order_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,7 +306,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expiration</t>
+    <t>check_out_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,30 +314,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check_out_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_credit_card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(20)-a開頭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(20)-c開頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre_charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>is_del</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MUL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update_datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,6 +435,42 @@
   </si>
   <si>
     <t>enum("NEW", "PAID", "CANCEL", "DELETE")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL-payment_atm(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +879,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -883,7 +891,7 @@
     <col min="5" max="5" width="5.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -899,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -910,13 +918,13 @@
         <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -930,16 +938,13 @@
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -950,14 +955,40 @@
         <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -966,12 +997,13 @@
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="F8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -986,77 +1018,59 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="F12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>44</v>
@@ -1065,19 +1079,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1085,76 +1099,91 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D21"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I23" s="2"/>
+      <c r="F23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E24" s="2"/>
-      <c r="G24"/>
-      <c r="H24"/>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>54</v>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -1165,10 +1194,13 @@
         <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -1182,13 +1214,10 @@
         <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -1202,13 +1231,10 @@
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -1218,28 +1244,16 @@
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -1253,12 +1267,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>37</v>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -1269,10 +1302,10 @@
         <v>55</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -1283,13 +1316,10 @@
         <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -1300,10 +1330,10 @@
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -1314,10 +1344,10 @@
         <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -1328,24 +1358,18 @@
         <v>24</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -1355,12 +1379,6 @@
       <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
@@ -1394,7 +1412,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
@@ -1405,7 +1423,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>35</v>
@@ -1455,7 +1473,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1487,7 +1505,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>48</v>
@@ -1503,7 +1521,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>26</v>
@@ -1514,12 +1532,12 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/資料庫規劃.xlsx
+++ b/資料庫規劃.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FOREIGN KEY() REFERENCES add_on_services(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,18 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MUL-orders(order_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUL-add_on_orders(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUL-room_type(type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guest_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MUL-guests(guest_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MUL-payment_atm(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update_datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,6 +447,34 @@
   </si>
   <si>
     <t>update_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL add_on_services(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL orders(order_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL guests(guest_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL add_on_orders(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL payment_atm(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL room_type(type)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,53 +882,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -932,16 +936,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>35</v>
@@ -949,24 +953,30 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>35</v>
@@ -974,19 +984,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H7"/>
     </row>
@@ -998,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>35</v>
@@ -1007,7 +1017,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1024,13 +1034,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -1038,60 +1048,60 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1099,57 +1109,57 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D21"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
@@ -1163,7 +1173,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1200,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -1222,16 +1232,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>34</v>
@@ -1247,13 +1257,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -1299,7 +1309,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>32</v>
@@ -1319,12 +1329,12 @@
         <v>21</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -1347,7 +1357,7 @@
         <v>33</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -1366,10 +1376,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -1393,12 +1403,12 @@
         <v>17</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
@@ -1412,7 +1422,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
@@ -1423,7 +1433,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>35</v>
@@ -1464,7 +1474,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>16</v>
@@ -1473,31 +1483,31 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>16</v>
@@ -1505,15 +1515,15 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>22</v>
@@ -1521,7 +1531,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>26</v>
@@ -1532,12 +1542,12 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/資料庫規劃.xlsx
+++ b/資料庫規劃.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddOnService_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>add_on_services</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add_on_orders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>room_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,23 +238,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUREENT_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_atm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_out_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>room_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_no</t>
+    <t>varchar(20)-a開頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAIWAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_in_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,7 +330,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_datetime</t>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,15 +350,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CUREENT_TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_on_order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
+    <t>update_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single_discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float(3,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastest_arrival_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum("NEW", "PAID", "CANCEL", "DELETE")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,11 +386,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>payment_atm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_out_date</t>
+    <t>update_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK orders(order_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK, FK calendar(date)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK, FK rooms(room_no)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK guests(guest_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK payment_atm(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_of_guests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with_AddOnServices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK room_type(type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,171 +478,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(20)-a開頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAIWAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check_in_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nights</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guest_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guests</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single_discount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float(3,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastest_arrival_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum("NEW", "PAID", "CANCEL", "DELETE")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(10,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUL add_on_services(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUL orders(order_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUL guests(guest_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUL add_on_orders(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUL payment_atm(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUL room_type(type)</t>
+    <t>add_on_order_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddOnServiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK add_on_services(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,19 +902,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="1"/>
@@ -902,33 +922,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -936,67 +956,67 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H7"/>
     </row>
@@ -1008,16 +1028,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1028,19 +1048,23 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
+      <c r="F9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -1048,121 +1072,120 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15"/>
+        <v>76</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D20"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21"/>
+        <v>34</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -1173,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1187,13 +1210,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -1204,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -1224,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>7</v>
@@ -1232,38 +1255,38 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -1282,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -1309,13 +1332,13 @@
         <v>17</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -1326,24 +1349,24 @@
         <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -1354,10 +1377,10 @@
         <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -1376,10 +1399,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -1403,12 +1426,12 @@
         <v>17</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
@@ -1422,10 +1445,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>14</v>
@@ -1433,10 +1456,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1474,7 +1497,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>16</v>
@@ -1483,31 +1506,31 @@
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>16</v>
@@ -1515,15 +1538,15 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>22</v>
@@ -1531,7 +1554,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>26</v>
@@ -1542,12 +1565,12 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/資料庫規劃.xlsx
+++ b/資料庫規劃.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="126">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum('Double','Twin','Single')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>images</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>room_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>room_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum("NEW", "PAID", "CANCEL", "DELETE")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FK orders(order_id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,14 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GuestId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK guests(guest_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PaymentId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,7 +414,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>with_AddOnServices</t>
+    <t>RoomType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_on_order_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddOnServiceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK add_on_services(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum("NEW", "PAID", "CANCEL")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK guests(phone)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrival_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK room_types(type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_del</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -454,47 +514,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoomType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK room_type(type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transfer_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_on_order_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddOnServiceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK add_on_services(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantity</t>
+    <t>varchar(125)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,17 +924,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
@@ -922,33 +946,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -956,67 +980,61 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H7"/>
     </row>
@@ -1028,43 +1046,40 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -1072,48 +1087,48 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1121,82 +1136,87 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16"/>
+        <v>73</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D20"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="F23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1210,13 +1230,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F25" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -1227,13 +1247,13 @@
         <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -1247,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>7</v>
@@ -1255,48 +1275,40 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="D30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1305,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -1317,6 +1329,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1328,56 +1346,59 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
@@ -1385,24 +1406,24 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -1410,75 +1431,97 @@
         <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>123</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
@@ -1486,7 +1529,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>16</v>
@@ -1494,83 +1537,72 @@
       <c r="C52" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D52" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
